--- a/Assets/Lion/Player/Data/Excel/PlayerData.xlsx
+++ b/Assets/Lion/Player/Data/Excel/PlayerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Lion\Assets\Lion\Player\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7109FD52-D379-4642-A37F-36C2AD1C7B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7D628-9E6C-4802-A955-6A1AB2004AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpLevelStatusTable" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,17 +103,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,11 +397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D121"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1742,7 +1754,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1784,7 +1796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1910,7 +1922,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1965,6 +1977,7 @@
       <c r="D112" s="2">
         <v>54.5</v>
       </c>
+      <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
@@ -2102,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5699D5E0-3B32-42EC-8611-C34466845F4A}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2846,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBDF95B-BB9F-4638-9058-846CC92DE057}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
